--- a/blog_posts.xlsx
+++ b/blog_posts.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,21 +449,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Post Created !!</t>
+          <t>Admin Post 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Successful Post -1 created</t>
+          <t>Post Creation Check Successful !!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>admin-user</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>45124.60048287699</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">post by Burger </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Burger Post -1 Created !!</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>burger</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>45122.26124510229</v>
+      <c r="D3" s="1" t="n">
+        <v>45124.60202849159</v>
       </c>
     </row>
   </sheetData>
